--- a/data_year/zb/运输和邮电/民用航空运输量及通用航空飞行时间.xlsx
+++ b/data_year/zb/运输和邮电/民用航空运输量及通用航空飞行时间.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,1700 +563,994 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.981759</v>
+        <v>345.480056</v>
       </c>
       <c r="C2" t="n">
-        <v>737.728252</v>
+        <v>3280.063471</v>
       </c>
       <c r="D2" t="n">
-        <v>6031.1956</v>
+        <v>24837.7134</v>
       </c>
       <c r="E2" t="n">
-        <v>21.113303</v>
+        <v>53.595367</v>
       </c>
       <c r="F2" t="n">
-        <v>147.4767</v>
+        <v>370.40556</v>
       </c>
       <c r="G2" t="n">
-        <v>46.518983</v>
+        <v>192.968914</v>
       </c>
       <c r="H2" t="n">
-        <v>232.815447</v>
+        <v>758.932487</v>
       </c>
       <c r="I2" t="n">
-        <v>690.4651</v>
+        <v>1931.4303</v>
       </c>
       <c r="J2" t="n">
-        <v>29.155016</v>
+        <v>125.302793</v>
       </c>
       <c r="K2" t="n">
-        <v>49.23557</v>
+        <v>192.63149</v>
       </c>
       <c r="L2" t="n">
-        <v>122.500742</v>
+        <v>538.44897</v>
       </c>
       <c r="M2" t="n">
-        <v>970.5436989999999</v>
+        <v>4038.995958</v>
       </c>
       <c r="N2" t="n">
-        <v>6721.66</v>
+        <v>26769.1437</v>
       </c>
       <c r="O2" t="n">
-        <v>50.268319</v>
+        <v>178.89816</v>
       </c>
       <c r="P2" t="n">
-        <v>196.71228</v>
+        <v>563.03705</v>
       </c>
       <c r="Q2" t="n">
-        <v>22922</v>
+        <v>29619</v>
       </c>
       <c r="R2" t="n">
-        <v>25785</v>
+        <v>65430</v>
       </c>
       <c r="S2" t="n">
-        <v>4060</v>
+        <v>1419</v>
       </c>
       <c r="T2" t="n">
-        <v>3927</v>
+        <v>7748</v>
       </c>
       <c r="U2" t="n">
-        <v>48707</v>
+        <v>391135</v>
       </c>
       <c r="V2" t="n">
-        <v>5.687819</v>
+        <v>11.589537</v>
       </c>
       <c r="W2" t="n">
-        <v>50.240464</v>
+        <v>98.18172800000001</v>
       </c>
       <c r="X2" t="n">
-        <v>403.38</v>
+        <v>672.374</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.949457</v>
+        <v>2.870019</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.5442</v>
+        <v>21.6603</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95.155</v>
+        <v>380.607499</v>
       </c>
       <c r="C3" t="n">
-        <v>846.3034</v>
+        <v>3658.911777</v>
       </c>
       <c r="D3" t="n">
-        <v>6832</v>
+        <v>27198.6055</v>
       </c>
       <c r="E3" t="n">
-        <v>19.609</v>
+        <v>55.160387</v>
       </c>
       <c r="F3" t="n">
-        <v>135.4019</v>
+        <v>379.43522</v>
       </c>
       <c r="G3" t="n">
-        <v>46.0367</v>
+        <v>196.835241</v>
       </c>
       <c r="H3" t="n">
-        <v>245.0505</v>
+        <v>878.051163</v>
       </c>
       <c r="I3" t="n">
-        <v>693</v>
+        <v>2118.0527</v>
       </c>
       <c r="J3" t="n">
-        <v>24.106</v>
+        <v>118.752683</v>
       </c>
       <c r="K3" t="n">
-        <v>35.5795</v>
+        <v>178.04267</v>
       </c>
       <c r="L3" t="n">
-        <v>141.1918</v>
+        <v>577.44274</v>
       </c>
       <c r="M3" t="n">
-        <v>1091.35</v>
+        <v>4536.9629</v>
       </c>
       <c r="N3" t="n">
-        <v>7524</v>
+        <v>29316.6582</v>
       </c>
       <c r="O3" t="n">
-        <v>43.72</v>
+        <v>173.91</v>
       </c>
       <c r="P3" t="n">
-        <v>171</v>
+        <v>557.477</v>
       </c>
       <c r="Q3" t="n">
-        <v>30754</v>
+        <v>33158</v>
       </c>
       <c r="R3" t="n">
-        <v>21752</v>
+        <v>56682</v>
       </c>
       <c r="S3" t="n">
-        <v>4934</v>
+        <v>2010</v>
       </c>
       <c r="T3" t="n">
-        <v>5300</v>
+        <v>9211</v>
       </c>
       <c r="U3" t="n">
-        <v>55937</v>
+        <v>502731</v>
       </c>
       <c r="V3" t="n">
-        <v>6.0452</v>
+        <v>12.642512</v>
       </c>
       <c r="W3" t="n">
-        <v>53.6808</v>
+        <v>111.616689</v>
       </c>
       <c r="X3" t="n">
-        <v>424</v>
+        <v>760.1876999999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.2495</v>
+        <v>2.760693</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.2796</v>
+        <v>21.00276</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.0647</v>
+        <v>415.833623</v>
       </c>
       <c r="C4" t="n">
-        <v>971.9846</v>
+        <v>4033.756824</v>
       </c>
       <c r="D4" t="n">
-        <v>7756</v>
+        <v>29600.2377</v>
       </c>
       <c r="E4" t="n">
-        <v>23.2451</v>
+        <v>57.436621</v>
       </c>
       <c r="F4" t="n">
-        <v>159.5299</v>
+        <v>388.51727</v>
       </c>
       <c r="G4" t="n">
-        <v>54.8619</v>
+        <v>194.488066</v>
       </c>
       <c r="H4" t="n">
-        <v>296.7177</v>
+        <v>991.97979</v>
       </c>
       <c r="I4" t="n">
-        <v>838</v>
+        <v>2335.8128</v>
       </c>
       <c r="J4" t="n">
-        <v>28.3064</v>
+        <v>106.452741</v>
       </c>
       <c r="K4" t="n">
-        <v>42.5321</v>
+        <v>156.51695</v>
       </c>
       <c r="L4" t="n">
-        <v>164.9267</v>
+        <v>610.321689</v>
       </c>
       <c r="M4" t="n">
-        <v>1268.7</v>
+        <v>5025.736614</v>
       </c>
       <c r="N4" t="n">
-        <v>8594</v>
+        <v>31936.0505</v>
       </c>
       <c r="O4" t="n">
-        <v>51.55</v>
+        <v>163.889362</v>
       </c>
       <c r="P4" t="n">
-        <v>202.1</v>
+        <v>545.03422</v>
       </c>
       <c r="Q4" t="n">
-        <v>25266</v>
+        <v>31873</v>
       </c>
       <c r="R4" t="n">
-        <v>23685</v>
+        <v>77075</v>
       </c>
       <c r="S4" t="n">
-        <v>5465</v>
+        <v>1315</v>
       </c>
       <c r="T4" t="n">
-        <v>5795</v>
+        <v>7453</v>
       </c>
       <c r="U4" t="n">
-        <v>57577</v>
+        <v>517037</v>
       </c>
       <c r="V4" t="n">
-        <v>6.5578</v>
+        <v>13.664757</v>
       </c>
       <c r="W4" t="n">
-        <v>56.7557</v>
+        <v>123.884929</v>
       </c>
       <c r="X4" t="n">
-        <v>438</v>
+        <v>833.6793</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.4856</v>
+        <v>2.712046</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.6836</v>
+        <v>20.7678</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>115.0153</v>
+        <v>461.047394</v>
       </c>
       <c r="C5" t="n">
-        <v>1014.8311</v>
+        <v>4511.004202</v>
       </c>
       <c r="D5" t="n">
-        <v>8078</v>
+        <v>32741.8329</v>
       </c>
       <c r="E5" t="n">
-        <v>24.3156</v>
+        <v>61.117582</v>
       </c>
       <c r="F5" t="n">
-        <v>167.6253</v>
+        <v>406.72163</v>
       </c>
       <c r="G5" t="n">
-        <v>55.7794</v>
+        <v>210.675691</v>
       </c>
       <c r="H5" t="n">
-        <v>248.3542</v>
+        <v>1145.755359</v>
       </c>
       <c r="I5" t="n">
-        <v>682</v>
+        <v>2654.7972</v>
       </c>
       <c r="J5" t="n">
-        <v>33.582</v>
+        <v>109.174228</v>
       </c>
       <c r="K5" t="n">
-        <v>51.4163</v>
+        <v>154.531</v>
       </c>
       <c r="L5" t="n">
-        <v>170.7946</v>
+        <v>671.723085</v>
       </c>
       <c r="M5" t="n">
-        <v>1263.19</v>
+        <v>5656.759561</v>
       </c>
       <c r="N5" t="n">
-        <v>8759</v>
+        <v>35396.6301</v>
       </c>
       <c r="O5" t="n">
-        <v>57.9</v>
+        <v>170.29181</v>
       </c>
       <c r="P5" t="n">
-        <v>219</v>
+        <v>561.25263</v>
       </c>
       <c r="Q5" t="n">
-        <v>25486</v>
+        <v>34118</v>
       </c>
       <c r="R5" t="n">
-        <v>28525</v>
+        <v>96354</v>
       </c>
       <c r="S5" t="n">
-        <v>3043</v>
+        <v>1178</v>
       </c>
       <c r="T5" t="n">
-        <v>7115</v>
+        <v>6574</v>
       </c>
       <c r="U5" t="n">
-        <v>63504</v>
+        <v>590890</v>
       </c>
       <c r="V5" t="n">
-        <v>5.6684</v>
+        <v>14.227573</v>
       </c>
       <c r="W5" t="n">
-        <v>45.0344</v>
+        <v>131.748799</v>
       </c>
       <c r="X5" t="n">
-        <v>341</v>
+        <v>903.8819</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.6451</v>
+        <v>2.615645</v>
       </c>
       <c r="Z5" t="n">
-        <v>10.6906</v>
+        <v>19.85613</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153.5884</v>
+        <v>508.003855</v>
       </c>
       <c r="C6" t="n">
-        <v>1384.1737</v>
+        <v>5017.389309</v>
       </c>
       <c r="D6" t="n">
-        <v>11046</v>
+        <v>36039.8986</v>
       </c>
       <c r="E6" t="n">
-        <v>29.924272</v>
+        <v>64.053303</v>
       </c>
       <c r="F6" t="n">
-        <v>206.21652</v>
+        <v>425.67162</v>
       </c>
       <c r="G6" t="n">
-        <v>77.4101</v>
+        <v>240.111734</v>
       </c>
       <c r="H6" t="n">
-        <v>398.10539</v>
+        <v>1316.800968</v>
       </c>
       <c r="I6" t="n">
-        <v>1077</v>
+        <v>3154.979</v>
       </c>
       <c r="J6" t="n">
-        <v>41.879337</v>
+        <v>123.718188</v>
       </c>
       <c r="K6" t="n">
-        <v>70.48353</v>
+        <v>168.4272</v>
       </c>
       <c r="L6" t="n">
-        <v>230.9985</v>
+        <v>748.115589</v>
       </c>
       <c r="M6" t="n">
-        <v>1782.3</v>
+        <v>6334.190277</v>
       </c>
       <c r="N6" t="n">
-        <v>12123</v>
+        <v>39194.8776</v>
       </c>
       <c r="O6" t="n">
-        <v>71.8</v>
+        <v>187.771491</v>
       </c>
       <c r="P6" t="n">
-        <v>276.7</v>
+        <v>594.09882</v>
       </c>
       <c r="Q6" t="n">
-        <v>27765</v>
+        <v>38220</v>
       </c>
       <c r="R6" t="n">
-        <v>35806</v>
+        <v>84259</v>
       </c>
       <c r="S6" t="n">
-        <v>3074</v>
+        <v>956</v>
       </c>
       <c r="T6" t="n">
-        <v>5962</v>
+        <v>7026</v>
       </c>
       <c r="U6" t="n">
-        <v>75277</v>
+        <v>674944</v>
       </c>
       <c r="V6" t="n">
-        <v>8.349</v>
+        <v>16.173279</v>
       </c>
       <c r="W6" t="n">
-        <v>64.3597</v>
+        <v>149.663862</v>
       </c>
       <c r="X6" t="n">
-        <v>469</v>
+        <v>1005.2388</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.601779</v>
+        <v>2.993145</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.76399</v>
+        <v>22.3332</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>175.7488</v>
+        <v>559.0409550000001</v>
       </c>
       <c r="C7" t="n">
-        <v>1592.5225</v>
+        <v>5565.715362</v>
       </c>
       <c r="D7" t="n">
-        <v>12602</v>
+        <v>39411.4399</v>
       </c>
       <c r="E7" t="n">
-        <v>33.6504</v>
+        <v>66.92579000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>229.5618</v>
+        <v>442.44979</v>
       </c>
       <c r="G7" t="n">
-        <v>85.5235</v>
+        <v>292.610692</v>
       </c>
       <c r="H7" t="n">
-        <v>452.4063</v>
+        <v>1716.835896</v>
       </c>
       <c r="I7" t="n">
-        <v>1225</v>
+        <v>4206.957</v>
       </c>
       <c r="J7" t="n">
-        <v>45.245</v>
+        <v>141.142539</v>
       </c>
       <c r="K7" t="n">
-        <v>77.1551</v>
+        <v>186.84437</v>
       </c>
       <c r="L7" t="n">
-        <v>261.2724</v>
+        <v>851.651647</v>
       </c>
       <c r="M7" t="n">
-        <v>2044.93</v>
+        <v>7282.5513</v>
       </c>
       <c r="N7" t="n">
-        <v>13827</v>
+        <v>43618</v>
       </c>
       <c r="O7" t="n">
-        <v>78.90000000000001</v>
+        <v>208.068329</v>
       </c>
       <c r="P7" t="n">
-        <v>306.7</v>
+        <v>629.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>25428</v>
+        <v>42064</v>
       </c>
       <c r="R7" t="n">
-        <v>36514</v>
+        <v>85468</v>
       </c>
       <c r="S7" t="n">
-        <v>1929</v>
+        <v>1394</v>
       </c>
       <c r="T7" t="n">
-        <v>6508</v>
+        <v>10245</v>
       </c>
       <c r="U7" t="n">
-        <v>84859</v>
+        <v>778408</v>
       </c>
       <c r="V7" t="n">
-        <v>8.950900000000001</v>
+        <v>16.220117</v>
       </c>
       <c r="W7" t="n">
-        <v>70.9205</v>
+        <v>151.776802</v>
       </c>
       <c r="X7" t="n">
-        <v>509</v>
+        <v>1019.7199</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.6263</v>
+        <v>2.846462</v>
       </c>
       <c r="Z7" t="n">
-        <v>16.9247</v>
+        <v>22.10141</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>202.6659</v>
+        <v>621.927355</v>
       </c>
       <c r="C8" t="n">
-        <v>1846.753856</v>
+        <v>6217.749785</v>
       </c>
       <c r="D8" t="n">
-        <v>14553</v>
+        <v>43633.7718</v>
       </c>
       <c r="E8" t="n">
-        <v>37.862491</v>
+        <v>72.110759</v>
       </c>
       <c r="F8" t="n">
-        <v>257.25815</v>
+        <v>474.81842</v>
       </c>
       <c r="G8" t="n">
-        <v>103.1319</v>
+        <v>340.583377</v>
       </c>
       <c r="H8" t="n">
-        <v>523.906149</v>
+        <v>2160.38499</v>
       </c>
       <c r="I8" t="n">
-        <v>1415</v>
+        <v>5162.2759</v>
       </c>
       <c r="J8" t="n">
-        <v>56.412777</v>
+        <v>150.338578</v>
       </c>
       <c r="K8" t="n">
-        <v>92.17381</v>
+        <v>193.19205</v>
       </c>
       <c r="L8" t="n">
-        <v>305.7979</v>
+        <v>962.510732</v>
       </c>
       <c r="M8" t="n">
-        <v>2370.660005</v>
+        <v>8378.134775</v>
       </c>
       <c r="N8" t="n">
-        <v>15967.8448</v>
+        <v>48796.0477</v>
       </c>
       <c r="O8" t="n">
-        <v>94.27526</v>
+        <v>222.449337</v>
       </c>
       <c r="P8" t="n">
-        <v>349.43196</v>
+        <v>668.0104700000001</v>
       </c>
       <c r="Q8" t="n">
-        <v>27675</v>
+        <v>51028</v>
       </c>
       <c r="R8" t="n">
-        <v>38316</v>
+        <v>82875</v>
       </c>
       <c r="S8" t="n">
-        <v>2027</v>
+        <v>733</v>
       </c>
       <c r="T8" t="n">
-        <v>6789</v>
+        <v>11943</v>
       </c>
       <c r="U8" t="n">
-        <v>91901</v>
+        <v>764685</v>
       </c>
       <c r="V8" t="n">
-        <v>9.574299999999999</v>
+        <v>15.431569</v>
       </c>
       <c r="W8" t="n">
-        <v>75.807292</v>
+        <v>144.103348</v>
       </c>
       <c r="X8" t="n">
-        <v>536</v>
+        <v>984.7219</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.826371</v>
+        <v>2.750463</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.91637</v>
+        <v>21.96081</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>235.307177</v>
+        <v>694.599848</v>
       </c>
       <c r="C9" t="n">
-        <v>2173.312332</v>
+        <v>7036.526224</v>
       </c>
       <c r="D9" t="n">
-        <v>16884.0196</v>
+        <v>49611.2028</v>
       </c>
       <c r="E9" t="n">
-        <v>41.573322</v>
+        <v>72.96556200000001</v>
       </c>
       <c r="F9" t="n">
-        <v>284.54222</v>
+        <v>483.81443</v>
       </c>
       <c r="G9" t="n">
-        <v>129.992081</v>
+        <v>388.47525</v>
       </c>
       <c r="H9" t="n">
-        <v>618.413426</v>
+        <v>2476.509546</v>
       </c>
       <c r="I9" t="n">
-        <v>1692.1916</v>
+        <v>5544.908</v>
       </c>
       <c r="J9" t="n">
-        <v>74.81335199999999</v>
+        <v>170.586732</v>
       </c>
       <c r="K9" t="n">
-        <v>117.30629</v>
+        <v>222.07764</v>
       </c>
       <c r="L9" t="n">
-        <v>365.299258</v>
+        <v>1083.075098</v>
       </c>
       <c r="M9" t="n">
-        <v>2791.725758</v>
+        <v>9513.03577</v>
       </c>
       <c r="N9" t="n">
-        <v>18576.2112</v>
+        <v>55156.1108</v>
       </c>
       <c r="O9" t="n">
-        <v>116.386674</v>
+        <v>243.552295</v>
       </c>
       <c r="P9" t="n">
-        <v>401.84851</v>
+        <v>705.89208</v>
       </c>
       <c r="Q9" t="n">
-        <v>28001</v>
+        <v>59578</v>
       </c>
       <c r="R9" t="n">
-        <v>44873</v>
+        <v>89336</v>
       </c>
       <c r="S9" t="n">
-        <v>1698</v>
+        <v>1157</v>
       </c>
       <c r="T9" t="n">
-        <v>7088</v>
+        <v>15476</v>
       </c>
       <c r="U9" t="n">
-        <v>109570</v>
+        <v>837496</v>
       </c>
       <c r="V9" t="n">
-        <v>9.437017000000001</v>
+        <v>16.09598</v>
       </c>
       <c r="W9" t="n">
-        <v>76.786466</v>
+        <v>148.248494</v>
       </c>
       <c r="X9" t="n">
-        <v>541.2343</v>
+        <v>1026.8761</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.612896</v>
+        <v>3.051172</v>
       </c>
       <c r="Z9" t="n">
-        <v>16.68126</v>
+        <v>24.15021</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>247.866335</v>
+        <v>771.508736</v>
       </c>
       <c r="C10" t="n">
-        <v>2305.534329</v>
+        <v>7889.703079</v>
       </c>
       <c r="D10" t="n">
-        <v>17732</v>
+        <v>54806.5014</v>
       </c>
       <c r="E10" t="n">
-        <v>42.234009</v>
+        <v>75.470141</v>
       </c>
       <c r="F10" t="n">
-        <v>288.16681</v>
+        <v>495.78641</v>
       </c>
       <c r="G10" t="n">
-        <v>128.898836</v>
+        <v>435.018886</v>
       </c>
       <c r="H10" t="n">
-        <v>577.265004</v>
+        <v>2822.61354</v>
       </c>
       <c r="I10" t="n">
-        <v>1519</v>
+        <v>6367.2704</v>
       </c>
       <c r="J10" t="n">
-        <v>77.368263</v>
+        <v>187.028965</v>
       </c>
       <c r="K10" t="n">
-        <v>119.47081</v>
+        <v>242.72343</v>
       </c>
       <c r="L10" t="n">
-        <v>376.765171</v>
+        <v>1206.527622</v>
       </c>
       <c r="M10" t="n">
-        <v>2882.799333</v>
+        <v>10712.316619</v>
       </c>
       <c r="N10" t="n">
-        <v>19251.11599</v>
+        <v>61173.7718</v>
       </c>
       <c r="O10" t="n">
-        <v>119.602272</v>
+        <v>262.499107</v>
       </c>
       <c r="P10" t="n">
-        <v>407.63762</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>24691</v>
-      </c>
-      <c r="R10" t="n">
-        <v>50591</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1555</v>
-      </c>
-      <c r="T10" t="n">
-        <v>6000</v>
-      </c>
+        <v>738.5098400000001</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>110706</v>
+        <v>937149</v>
       </c>
       <c r="V10" t="n">
-        <v>8.792548</v>
+        <v>17.512959</v>
       </c>
       <c r="W10" t="n">
-        <v>71.821117</v>
+        <v>165.052496</v>
       </c>
       <c r="X10" t="n">
-        <v>500</v>
+        <v>1127.0874</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.408901</v>
+        <v>3.014951</v>
       </c>
       <c r="Z10" t="n">
-        <v>15.62213</v>
+        <v>23.48073</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>297.1215</v>
+        <v>829.51043</v>
       </c>
       <c r="C11" t="n">
-        <v>2809.0274</v>
+        <v>8520.21559</v>
       </c>
       <c r="D11" t="n">
-        <v>21578.1367</v>
+        <v>58567.9912</v>
       </c>
       <c r="E11" t="n">
-        <v>46.7982</v>
+        <v>78.58810200000001</v>
       </c>
       <c r="F11" t="n">
-        <v>319.4364</v>
+        <v>511.23759</v>
       </c>
       <c r="G11" t="n">
-        <v>129.9511</v>
+        <v>463.742569</v>
       </c>
       <c r="H11" t="n">
-        <v>566.208</v>
+        <v>3185.081534</v>
       </c>
       <c r="I11" t="n">
-        <v>1473.502</v>
+        <v>7425.4319</v>
       </c>
       <c r="J11" t="n">
-        <v>79.4325</v>
+        <v>184.61095</v>
       </c>
       <c r="K11" t="n">
-        <v>126.0983</v>
+        <v>241.90502</v>
       </c>
       <c r="L11" t="n">
-        <v>427.0726</v>
+        <v>1293.252999</v>
       </c>
       <c r="M11" t="n">
-        <v>3375.235362</v>
+        <v>11705.297124</v>
       </c>
       <c r="N11" t="n">
-        <v>23051.6387</v>
+        <v>65993.4231</v>
       </c>
       <c r="O11" t="n">
-        <v>126.230702</v>
+        <v>263.199032</v>
       </c>
       <c r="P11" t="n">
-        <v>445.5347</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>26309</v>
-      </c>
-      <c r="R11" t="n">
-        <v>52916</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1534</v>
-      </c>
-      <c r="T11" t="n">
-        <v>7340</v>
-      </c>
+        <v>753.14261</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>123838</v>
+        <v>1065011</v>
       </c>
       <c r="V11" t="n">
-        <v>8.9293</v>
+        <v>16.89544</v>
       </c>
       <c r="W11" t="n">
-        <v>74.9114</v>
+        <v>160.461273</v>
       </c>
       <c r="X11" t="n">
-        <v>517.4798</v>
+        <v>1107.56</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.2743</v>
+        <v>2.805696</v>
       </c>
       <c r="Z11" t="n">
-        <v>15.9019</v>
+        <v>22.2169</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>345.480056</v>
+        <v>587.673143</v>
       </c>
       <c r="C12" t="n">
-        <v>3280.063471</v>
+        <v>5868.867967</v>
       </c>
       <c r="D12" t="n">
-        <v>24837.7134</v>
+        <v>40821.3044</v>
       </c>
       <c r="E12" t="n">
-        <v>53.595367</v>
+        <v>67.874511</v>
       </c>
       <c r="F12" t="n">
-        <v>370.40556</v>
+        <v>453.53284</v>
       </c>
       <c r="G12" t="n">
-        <v>192.968914</v>
+        <v>210.832839</v>
       </c>
       <c r="H12" t="n">
-        <v>758.932487</v>
+        <v>442.409057</v>
       </c>
       <c r="I12" t="n">
-        <v>1931.4303</v>
+        <v>956.5127</v>
       </c>
       <c r="J12" t="n">
-        <v>125.302793</v>
+        <v>172.326864</v>
       </c>
       <c r="K12" t="n">
-        <v>192.63149</v>
+        <v>223.07416</v>
       </c>
       <c r="L12" t="n">
-        <v>538.44897</v>
+        <v>798.505983</v>
       </c>
       <c r="M12" t="n">
-        <v>4038.995958</v>
+        <v>6311.277023</v>
       </c>
       <c r="N12" t="n">
-        <v>26769.1437</v>
+        <v>41777.8171</v>
       </c>
       <c r="O12" t="n">
-        <v>178.89816</v>
+        <v>240.201376</v>
       </c>
       <c r="P12" t="n">
-        <v>563.03705</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>29619</v>
-      </c>
-      <c r="R12" t="n">
-        <v>65430</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1419</v>
-      </c>
-      <c r="T12" t="n">
-        <v>7748</v>
-      </c>
+        <v>676.60699</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>391135</v>
+        <v>983988</v>
       </c>
       <c r="V12" t="n">
-        <v>11.589537</v>
+        <v>3.186586</v>
       </c>
       <c r="W12" t="n">
-        <v>98.18172800000001</v>
+        <v>12.829625</v>
       </c>
       <c r="X12" t="n">
-        <v>672.374</v>
+        <v>96.1268</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.870019</v>
+        <v>2.066236</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.6603</v>
+        <v>17.57806</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>380.607499</v>
+        <v>641.1374510000001</v>
       </c>
       <c r="C13" t="n">
-        <v>3658.911777</v>
+        <v>6439.118615</v>
       </c>
       <c r="D13" t="n">
-        <v>27198.6055</v>
+        <v>43908.0249</v>
       </c>
       <c r="E13" t="n">
-        <v>55.160387</v>
+        <v>70.585645</v>
       </c>
       <c r="F13" t="n">
-        <v>379.43522</v>
+        <v>465.13942</v>
       </c>
       <c r="G13" t="n">
-        <v>196.835241</v>
+        <v>215.611864</v>
       </c>
       <c r="H13" t="n">
-        <v>878.051163</v>
+        <v>90.56268</v>
       </c>
       <c r="I13" t="n">
-        <v>2118.0527</v>
+        <v>147.7176</v>
       </c>
       <c r="J13" t="n">
-        <v>118.752683</v>
+        <v>207.572304</v>
       </c>
       <c r="K13" t="n">
-        <v>178.04267</v>
+        <v>266.70076</v>
       </c>
       <c r="L13" t="n">
-        <v>577.44274</v>
+        <v>856.749315</v>
       </c>
       <c r="M13" t="n">
-        <v>4536.9629</v>
+        <v>6529.681295</v>
       </c>
       <c r="N13" t="n">
-        <v>29316.6582</v>
+        <v>44055.7425</v>
       </c>
       <c r="O13" t="n">
-        <v>173.91</v>
+        <v>278.157949</v>
       </c>
       <c r="P13" t="n">
-        <v>557.477</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>33158</v>
-      </c>
-      <c r="R13" t="n">
-        <v>56682</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2010</v>
-      </c>
-      <c r="T13" t="n">
-        <v>9211</v>
-      </c>
+        <v>731.84018</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>502731</v>
+        <v>1178412</v>
       </c>
       <c r="V13" t="n">
-        <v>12.642512</v>
+        <v>3.012879</v>
       </c>
       <c r="W13" t="n">
-        <v>111.616689</v>
+        <v>8.192786</v>
       </c>
       <c r="X13" t="n">
-        <v>760.1876999999999</v>
+        <v>59.2505</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.760693</v>
+        <v>2.290066</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.00276</v>
+        <v>18.98905</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>415.833623</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4033.756824</v>
-      </c>
-      <c r="D14" t="n">
-        <v>29600.2377</v>
-      </c>
-      <c r="E14" t="n">
-        <v>57.436621</v>
-      </c>
-      <c r="F14" t="n">
-        <v>388.51727</v>
-      </c>
-      <c r="G14" t="n">
-        <v>194.488066</v>
-      </c>
-      <c r="H14" t="n">
-        <v>991.97979</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2335.8128</v>
-      </c>
-      <c r="J14" t="n">
-        <v>106.452741</v>
-      </c>
-      <c r="K14" t="n">
-        <v>156.51695</v>
-      </c>
-      <c r="L14" t="n">
-        <v>610.321689</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>5025.736614</v>
+        <v>3913.75</v>
       </c>
       <c r="N14" t="n">
-        <v>31936.0505</v>
+        <v>25171.04</v>
       </c>
       <c r="O14" t="n">
-        <v>163.889362</v>
+        <v>254.1</v>
       </c>
       <c r="P14" t="n">
-        <v>545.03422</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>31873</v>
-      </c>
-      <c r="R14" t="n">
-        <v>77075</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1315</v>
-      </c>
-      <c r="T14" t="n">
-        <v>7453</v>
-      </c>
-      <c r="U14" t="n">
-        <v>517037</v>
-      </c>
-      <c r="V14" t="n">
-        <v>13.664757</v>
-      </c>
-      <c r="W14" t="n">
-        <v>123.884929</v>
-      </c>
-      <c r="X14" t="n">
-        <v>833.6793</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>2.712046</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>20.7678</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>461.047394</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4511.004202</v>
-      </c>
-      <c r="D15" t="n">
-        <v>32741.8329</v>
-      </c>
-      <c r="E15" t="n">
-        <v>61.117582</v>
-      </c>
-      <c r="F15" t="n">
-        <v>406.72163</v>
-      </c>
-      <c r="G15" t="n">
-        <v>210.675691</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1145.755359</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2654.7972</v>
-      </c>
-      <c r="J15" t="n">
-        <v>109.174228</v>
-      </c>
-      <c r="K15" t="n">
-        <v>154.531</v>
-      </c>
-      <c r="L15" t="n">
-        <v>671.723085</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5656.759561</v>
-      </c>
-      <c r="N15" t="n">
-        <v>35396.6301</v>
-      </c>
-      <c r="O15" t="n">
-        <v>170.29181</v>
-      </c>
-      <c r="P15" t="n">
-        <v>561.25263</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>34118</v>
-      </c>
-      <c r="R15" t="n">
-        <v>96354</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1178</v>
-      </c>
-      <c r="T15" t="n">
-        <v>6574</v>
-      </c>
-      <c r="U15" t="n">
-        <v>590890</v>
-      </c>
-      <c r="V15" t="n">
-        <v>14.227573</v>
-      </c>
-      <c r="W15" t="n">
-        <v>131.748799</v>
-      </c>
-      <c r="X15" t="n">
-        <v>903.8819</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>2.615645</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>19.85613</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>508.003855</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5017.389309</v>
-      </c>
-      <c r="D16" t="n">
-        <v>36039.8986</v>
-      </c>
-      <c r="E16" t="n">
-        <v>64.053303</v>
-      </c>
-      <c r="F16" t="n">
-        <v>425.67162</v>
-      </c>
-      <c r="G16" t="n">
-        <v>240.111734</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1316.800968</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3154.979</v>
-      </c>
-      <c r="J16" t="n">
-        <v>123.718188</v>
-      </c>
-      <c r="K16" t="n">
-        <v>168.4272</v>
-      </c>
-      <c r="L16" t="n">
-        <v>748.115589</v>
-      </c>
-      <c r="M16" t="n">
-        <v>6334.190277</v>
-      </c>
-      <c r="N16" t="n">
-        <v>39194.8776</v>
-      </c>
-      <c r="O16" t="n">
-        <v>187.771491</v>
-      </c>
-      <c r="P16" t="n">
-        <v>594.09882</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>38220</v>
-      </c>
-      <c r="R16" t="n">
-        <v>84259</v>
-      </c>
-      <c r="S16" t="n">
-        <v>956</v>
-      </c>
-      <c r="T16" t="n">
-        <v>7026</v>
-      </c>
-      <c r="U16" t="n">
-        <v>674944</v>
-      </c>
-      <c r="V16" t="n">
-        <v>16.173279</v>
-      </c>
-      <c r="W16" t="n">
-        <v>149.663862</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1005.2388</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>2.993145</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>22.3332</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>559.0409550000001</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5565.715362</v>
-      </c>
-      <c r="D17" t="n">
-        <v>39411.4399</v>
-      </c>
-      <c r="E17" t="n">
-        <v>66.92579000000001</v>
-      </c>
-      <c r="F17" t="n">
-        <v>442.44979</v>
-      </c>
-      <c r="G17" t="n">
-        <v>292.610692</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1716.835896</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4206.957</v>
-      </c>
-      <c r="J17" t="n">
-        <v>141.142539</v>
-      </c>
-      <c r="K17" t="n">
-        <v>186.84437</v>
-      </c>
-      <c r="L17" t="n">
-        <v>851.651647</v>
-      </c>
-      <c r="M17" t="n">
-        <v>7282.5513</v>
-      </c>
-      <c r="N17" t="n">
-        <v>43618</v>
-      </c>
-      <c r="O17" t="n">
-        <v>208.0683</v>
-      </c>
-      <c r="P17" t="n">
-        <v>629.2942</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>42064</v>
-      </c>
-      <c r="R17" t="n">
-        <v>85468</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1394</v>
-      </c>
-      <c r="T17" t="n">
-        <v>10245</v>
-      </c>
-      <c r="U17" t="n">
-        <v>778408</v>
-      </c>
-      <c r="V17" t="n">
-        <v>16.220117</v>
-      </c>
-      <c r="W17" t="n">
-        <v>151.776802</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1019.7199</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>2.846462</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>22.10141</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>621.927355</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6217.749785</v>
-      </c>
-      <c r="D18" t="n">
-        <v>43633.7718</v>
-      </c>
-      <c r="E18" t="n">
-        <v>72.110759</v>
-      </c>
-      <c r="F18" t="n">
-        <v>474.81842</v>
-      </c>
-      <c r="G18" t="n">
-        <v>340.583377</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2160.38499</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5162.2759</v>
-      </c>
-      <c r="J18" t="n">
-        <v>150.338578</v>
-      </c>
-      <c r="K18" t="n">
-        <v>193.19205</v>
-      </c>
-      <c r="L18" t="n">
-        <v>962.510732</v>
-      </c>
-      <c r="M18" t="n">
-        <v>8378.134775</v>
-      </c>
-      <c r="N18" t="n">
-        <v>48796.0477</v>
-      </c>
-      <c r="O18" t="n">
-        <v>222.449337</v>
-      </c>
-      <c r="P18" t="n">
-        <v>668.0104700000001</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>51028</v>
-      </c>
-      <c r="R18" t="n">
-        <v>82875</v>
-      </c>
-      <c r="S18" t="n">
-        <v>733</v>
-      </c>
-      <c r="T18" t="n">
-        <v>11943</v>
-      </c>
-      <c r="U18" t="n">
-        <v>764685</v>
-      </c>
-      <c r="V18" t="n">
-        <v>15.431569</v>
-      </c>
-      <c r="W18" t="n">
-        <v>144.103348</v>
-      </c>
-      <c r="X18" t="n">
-        <v>984.7219</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>2.750463</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>21.96081</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>694.599848</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7036.526224</v>
-      </c>
-      <c r="D19" t="n">
-        <v>49611.2028</v>
-      </c>
-      <c r="E19" t="n">
-        <v>72.96556200000001</v>
-      </c>
-      <c r="F19" t="n">
-        <v>483.81443</v>
-      </c>
-      <c r="G19" t="n">
-        <v>388.47525</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2476.509546</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5544.908</v>
-      </c>
-      <c r="J19" t="n">
-        <v>170.586732</v>
-      </c>
-      <c r="K19" t="n">
-        <v>222.07764</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1083.075098</v>
-      </c>
-      <c r="M19" t="n">
-        <v>9513.03577</v>
-      </c>
-      <c r="N19" t="n">
-        <v>55156.1108</v>
-      </c>
-      <c r="O19" t="n">
-        <v>243.552295</v>
-      </c>
-      <c r="P19" t="n">
-        <v>705.89208</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>59578</v>
-      </c>
-      <c r="R19" t="n">
-        <v>89336</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1157</v>
-      </c>
-      <c r="T19" t="n">
-        <v>15476</v>
-      </c>
-      <c r="U19" t="n">
-        <v>837496</v>
-      </c>
-      <c r="V19" t="n">
-        <v>16.09598</v>
-      </c>
-      <c r="W19" t="n">
-        <v>148.248494</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1026.8761</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>3.051172</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>24.15021</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>771.508736</v>
-      </c>
-      <c r="C20" t="n">
-        <v>7889.703079</v>
-      </c>
-      <c r="D20" t="n">
-        <v>54806.5014</v>
-      </c>
-      <c r="E20" t="n">
-        <v>75.470141</v>
-      </c>
-      <c r="F20" t="n">
-        <v>495.78641</v>
-      </c>
-      <c r="G20" t="n">
-        <v>435.018886</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2822.61354</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6367.2704</v>
-      </c>
-      <c r="J20" t="n">
-        <v>187.028965</v>
-      </c>
-      <c r="K20" t="n">
-        <v>242.72343</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1206.527622</v>
-      </c>
-      <c r="M20" t="n">
-        <v>10712.316619</v>
-      </c>
-      <c r="N20" t="n">
-        <v>61173.7718</v>
-      </c>
-      <c r="O20" t="n">
-        <v>262.499107</v>
-      </c>
-      <c r="P20" t="n">
-        <v>738.5098400000001</v>
-      </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="n">
-        <v>937149</v>
-      </c>
-      <c r="V20" t="n">
-        <v>17.512959</v>
-      </c>
-      <c r="W20" t="n">
-        <v>165.052496</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1127.0874</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>3.014951</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>23.48073</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>829.51043</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8520.21559</v>
-      </c>
-      <c r="D21" t="n">
-        <v>58567.9912</v>
-      </c>
-      <c r="E21" t="n">
-        <v>78.58810200000001</v>
-      </c>
-      <c r="F21" t="n">
-        <v>511.23759</v>
-      </c>
-      <c r="G21" t="n">
-        <v>463.742569</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3185.081534</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7425.4319</v>
-      </c>
-      <c r="J21" t="n">
-        <v>184.61095</v>
-      </c>
-      <c r="K21" t="n">
-        <v>241.90502</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1293.252999</v>
-      </c>
-      <c r="M21" t="n">
-        <v>11705.297124</v>
-      </c>
-      <c r="N21" t="n">
-        <v>65993.4231</v>
-      </c>
-      <c r="O21" t="n">
-        <v>263.199032</v>
-      </c>
-      <c r="P21" t="n">
-        <v>753.14261</v>
-      </c>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="n">
-        <v>1065011</v>
-      </c>
-      <c r="V21" t="n">
-        <v>16.89544</v>
-      </c>
-      <c r="W21" t="n">
-        <v>160.461273</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1107.56</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>2.805696</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>22.2169</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>587.673143</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5868.867967</v>
-      </c>
-      <c r="D22" t="n">
-        <v>40821.3044</v>
-      </c>
-      <c r="E22" t="n">
-        <v>67.874511</v>
-      </c>
-      <c r="F22" t="n">
-        <v>453.53284</v>
-      </c>
-      <c r="G22" t="n">
-        <v>210.832839</v>
-      </c>
-      <c r="H22" t="n">
-        <v>442.409057</v>
-      </c>
-      <c r="I22" t="n">
-        <v>956.5127</v>
-      </c>
-      <c r="J22" t="n">
-        <v>172.326864</v>
-      </c>
-      <c r="K22" t="n">
-        <v>223.07416</v>
-      </c>
-      <c r="L22" t="n">
-        <v>798.505983</v>
-      </c>
-      <c r="M22" t="n">
-        <v>6311.277023</v>
-      </c>
-      <c r="N22" t="n">
-        <v>41777.8171</v>
-      </c>
-      <c r="O22" t="n">
-        <v>240.201376</v>
-      </c>
-      <c r="P22" t="n">
-        <v>676.60699</v>
-      </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="n">
-        <v>983988</v>
-      </c>
-      <c r="V22" t="n">
-        <v>3.186586</v>
-      </c>
-      <c r="W22" t="n">
-        <v>12.829625</v>
-      </c>
-      <c r="X22" t="n">
-        <v>96.1268</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>2.066236</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>17.57806</v>
-      </c>
+        <v>607.63</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
